--- a/benchmark_results/branches_distribution_stats.xlsx
+++ b/benchmark_results/branches_distribution_stats.xlsx
@@ -472,163 +472,163 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>809</v>
+        <v>1846</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F2" t="n">
-        <v>237.2</v>
+        <v>994.5</v>
       </c>
       <c r="G2" t="n">
-        <v>730</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>763</v>
+        <v>1559</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="F3" t="n">
-        <v>320</v>
+        <v>570.75</v>
       </c>
       <c r="G3" t="n">
-        <v>680</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
+        <v>40</v>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
       <c r="D4" t="n">
-        <v>472</v>
+        <v>1527</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F4" t="n">
-        <v>273.5</v>
+        <v>594.1666666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>397</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>518</v>
+        <v>1426</v>
       </c>
       <c r="E5" t="n">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F5" t="n">
-        <v>248.3333333333333</v>
+        <v>556.3333333333334</v>
       </c>
       <c r="G5" t="n">
-        <v>391</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>480</v>
+        <v>1282</v>
       </c>
       <c r="E6" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F6" t="n">
-        <v>304</v>
+        <v>327.6666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>352</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>340</v>
+        <v>1229</v>
       </c>
       <c r="E7" t="n">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F7" t="n">
-        <v>151.8</v>
+        <v>330.6666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>263</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>319</v>
+        <v>1188</v>
       </c>
       <c r="E8" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="F8" t="n">
-        <v>134.25</v>
+        <v>792.75</v>
       </c>
       <c r="G8" t="n">
-        <v>234</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>225</v>
+        <v>1132</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F9" t="n">
-        <v>117.2</v>
+        <v>373.4</v>
       </c>
       <c r="G9" t="n">
-        <v>150</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="10">
@@ -659,183 +659,183 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>228</v>
+        <v>1094</v>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="F10" t="n">
-        <v>135.4</v>
+        <v>515.4</v>
       </c>
       <c r="G10" t="n">
-        <v>148</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>164</v>
+        <v>968</v>
       </c>
       <c r="E11" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F11" t="n">
-        <v>100.75</v>
+        <v>287.6</v>
       </c>
       <c r="G11" t="n">
-        <v>98</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>5</v>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7</v>
-      </c>
       <c r="D12" t="n">
-        <v>161</v>
+        <v>1002</v>
       </c>
       <c r="E12" t="n">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F12" t="n">
-        <v>106.4285714285714</v>
+        <v>456.6</v>
       </c>
       <c r="G12" t="n">
-        <v>95</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>158</v>
+        <v>920</v>
       </c>
       <c r="E13" t="n">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="F13" t="n">
-        <v>105.4285714285714</v>
+        <v>606.75</v>
       </c>
       <c r="G13" t="n">
-        <v>92</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
         <v>5</v>
       </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7</v>
-      </c>
       <c r="D14" t="n">
-        <v>164</v>
+        <v>910</v>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="F14" t="n">
-        <v>105.5714285714286</v>
+        <v>425.6</v>
       </c>
       <c r="G14" t="n">
-        <v>86</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
       <c r="D15" t="n">
-        <v>192</v>
+        <v>766</v>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F15" t="n">
-        <v>147.8333333333333</v>
+        <v>206.75</v>
       </c>
       <c r="G15" t="n">
-        <v>75</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>131</v>
+        <v>734</v>
       </c>
       <c r="E16" t="n">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F16" t="n">
-        <v>106.125</v>
+        <v>313</v>
       </c>
       <c r="G16" t="n">
-        <v>63</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>146</v>
+        <v>693</v>
       </c>
       <c r="E17" t="n">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F17" t="n">
-        <v>113.6666666666667</v>
+        <v>249.2</v>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +843,22 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>127</v>
+        <v>704</v>
       </c>
       <c r="E18" t="n">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="F18" t="n">
-        <v>97.5</v>
+        <v>371</v>
       </c>
       <c r="G18" t="n">
-        <v>58</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19">
@@ -872,16 +872,16 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>143</v>
+        <v>593</v>
       </c>
       <c r="E19" t="n">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F19" t="n">
-        <v>122.8333333333333</v>
+        <v>290.8333333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>58</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20">
@@ -889,45 +889,45 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>132</v>
+        <v>538</v>
       </c>
       <c r="E20" t="n">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="F20" t="n">
-        <v>104</v>
+        <v>267.8571428571428</v>
       </c>
       <c r="G20" t="n">
-        <v>58</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="F21" t="n">
-        <v>100.75</v>
+        <v>178</v>
       </c>
       <c r="G21" t="n">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
